--- a/biology/Zoologie/Aquarium_public_de_Bruxelles/Aquarium_public_de_Bruxelles.xlsx
+++ b/biology/Zoologie/Aquarium_public_de_Bruxelles/Aquarium_public_de_Bruxelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aquarium de Bruxelles est un ancien centre d'aquariologie situé avenue Émile Bossaert à Koekelberg en région bruxelloise. Il a été ouvert de 2005 à 2018.
 </t>
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Inauguré en septembre 2005, l'aquarium est un outil de recherche et d'enseignement grâce à une reconstitution fidèle des milieux aquatiques. Axé principalement sur une démarche pédagogique et de sensibilisation à la préservation de la biodiversité, il ne présente pas d'espèce à sensation tels que les requins.
 L'aquarium de Bruxelles est agréé parc zoologique par le ministère de la Santé publique (n° : ZP21015).
-Il s'agit du deuxième Aquarium de Bruxelles. Le premier avait vu le jour en 1906 près du Bois de la Cambre et portait le nom d'Aquarium et Musée de pisciculture de Bruxelles, mais avait fermé ses portes peu avant la Seconde Guerre mondiale et avait disparu par la suite[1],[2].
-Cette seconde tentative d'implanter un aquarium public à Bruxelles a pris fin le 8 janvier 2018, faute de reprise par les autorités publiques, après le départ de ses deux fondateurs[3], Les animaux présents dans l'aquarium ont été répartis dans d'autres aquariums ou zoos en Europe[4],[3].
+Il s'agit du deuxième Aquarium de Bruxelles. Le premier avait vu le jour en 1906 près du Bois de la Cambre et portait le nom d'Aquarium et Musée de pisciculture de Bruxelles, mais avait fermé ses portes peu avant la Seconde Guerre mondiale et avait disparu par la suite,.
+Cette seconde tentative d'implanter un aquarium public à Bruxelles a pris fin le 8 janvier 2018, faute de reprise par les autorités publiques, après le départ de ses deux fondateurs, Les animaux présents dans l'aquarium ont été répartis dans d'autres aquariums ou zoos en Europe,.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Faune aquatique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi la faune présentée à l'aquarium public de Bruxelles de 2005 à 2018, figuraient de nombreux poissons d'eau douce, d'eau saumâtre, des invertébrés, mais également de nombreux amphibiens.
 Quelques espèces présentées à l'aquarium (liste non exhaustive) :
